--- a/excel-report/FitnessGramReport.xlsx
+++ b/excel-report/FitnessGramReport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="9">
   <si>
     <t>Status</t>
   </si>
@@ -35,13 +35,22 @@
     <t>TestCase_ID</t>
   </si>
   <si>
-    <t>TrialAssureAnonymization</t>
+    <t>LoginTest</t>
   </si>
   <si>
     <t>TC001</t>
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>VerifyTitle</t>
+  </si>
+  <si>
+    <t>VerifyURL</t>
+  </si>
+  <si>
+    <t>TC002</t>
   </si>
 </sst>
 </file>
@@ -64,7 +73,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,6 +84,146 @@
       <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -140,14 +289,28 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -428,15 +591,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.43359375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.07421875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.70703125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="8.0546875" collapsed="true"/>
   </cols>
@@ -465,7 +628,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -476,10 +639,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -487,7 +650,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -498,12 +661,166 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s" s="20">
         <v>5</v>
       </c>
     </row>
